--- a/data/Annexe4_ETBX_complet_2020_08_03.xlsx
+++ b/data/Annexe4_ETBX_complet_2020_08_03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="14955" tabRatio="839" activeTab="6"/>
+    <workbookView windowWidth="27735" windowHeight="14955" tabRatio="839" firstSheet="56" activeTab="59"/>
   </bookViews>
   <sheets>
     <sheet name="CONSIGNES" sheetId="1" r:id="rId1"/>
@@ -39962,13 +39962,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <charset val="1"/>
-      </rPr>
       <t>Krasnod</t>
     </r>
     <r>
@@ -39998,25 +39991,7 @@
         <rFont val="Century Gothic"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> - (A para</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>î</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <charset val="1"/>
-      </rPr>
-      <t>tre) - National Fuel and National Forest: the French Quest for Wood Fuels in the Interwar Period, Technology and Culture</t>
+      <t xml:space="preserve"> - (2020) - National Fuel and National Forest: the French Quest for Wood Fuels in the Interwar Period, Technology and Culture</t>
     </r>
   </si>
   <si>
@@ -40259,23 +40234,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
+      <t>Rulleau B,</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>Rulleau B,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> à paraître, "Assessing the benefits of improving the resilience of critical infrastructures against cyber-attacks", Journal of Water supply.</t>
+      <t xml:space="preserve"> 2020, "Assessing the benefits of improving the resilience of critical infrastructures against cyber-attacks", Journal of Water supply.</t>
     </r>
   </si>
   <si>
@@ -40345,12 +40313,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Bousquet F., </t>
     </r>
     <r>
@@ -40409,7 +40371,7 @@
         <rFont val="Century Gothic"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, Blondy C., Becu N., </t>
+      <t>, Blondy C., Becu N., 2020. Quels liens entre relation au lieu et concernement ? Une exploration interdisciplinaire vis-</t>
     </r>
     <r>
       <rPr>
@@ -40427,42 +40389,6 @@
         <rFont val="Century Gothic"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> para</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>î</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <charset val="1"/>
-      </rPr>
-      <t>tre. Quels liens entre relation au lieu et concernement ? Une exploration interdisciplinaire vis-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <charset val="1"/>
-      </rPr>
       <t>-vis des risques fluviaux et c</t>
     </r>
     <r>
@@ -40565,47 +40491,13 @@
     <t>Bousquet F., Rocle N., Rey-Valette H., Meur-Ferec C., Vye D., Lautrédou-Audouy N., Amalric M., Blanchet L., Lyser S., Blondy C., Becu N.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <charset val="1"/>
-      </rPr>
-      <t>RULLEAU B, SALLES D., GILBERT D., LE GAT Y., RENAUD E., BERNARD P., GREMMEL J., GIARD A., ASSOUAN E., DE GRISSAC B., EISENBEIS P., HUSSON A., RAMBONILAZA T., STRICKER A.-E., en r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>é</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <charset val="1"/>
-      </rPr>
-      <t>vision, "Crafting futures together – Scenarios for water infrastructures asset management in a context of global change”, Journal of Water Supply</t>
-    </r>
+    <t>RULLEAU B, SALLES D., GILBERT D., LE GAT Y., RENAUD E., BERNARD P., GREMMEL J., GIARD A., ASSOUAN E., DE GRISSAC B., EISENBEIS P., HUSSON A., RAMBONILAZA T., STRICKER A.-E., 2020, "Crafting futures together – Scenarios for water infrastructures asset management in a context of global change”, Journal of Water Supply</t>
   </si>
   <si>
     <t>RULLEAU B, SALLES D., GILBERT D., LE GAT Y., RENAUD E., BERNARD P., GREMMEL J., GIARD A., ASSOUAN E., DE GRISSAC B., EISENBEIS P., HUSSON A., RAMBONILAZA T., STRICKER A.-E</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Banos, V., Bouet, B., Deuffic, P. </t>
     </r>
     <r>
@@ -47438,16 +47330,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="177" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\-mmm"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="111">
     <font>
@@ -47907,6 +47799,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -47914,8 +47811,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -47929,42 +47880,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -47973,31 +47888,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48005,21 +47897,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -48035,7 +47912,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48043,6 +47920,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48263,6 +48155,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -48270,12 +48168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -48293,31 +48185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -48329,25 +48209,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -48365,7 +48251,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -48377,13 +48311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -48395,49 +48323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -48632,21 +48524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -48658,11 +48535,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -48678,6 +48553,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -48706,6 +48596,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -48720,15 +48621,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -48736,140 +48628,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="70" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="73" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="39" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="88" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="86" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="27" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="83" fillId="24" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="39" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="73" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="70" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="73" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="73" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="73" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="70" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="70" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="70" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -49009,7 +48901,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -49222,7 +49114,7 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -49243,7 +49135,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="39" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -49304,212 +49196,212 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -49593,25 +49485,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -49645,19 +49537,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -49683,21 +49575,21 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -49738,7 +49630,7 @@
     <xf numFmtId="0" fontId="54" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -49757,10 +49649,10 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 3 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="60 % - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40 % - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="Virgule" xfId="7" builtinId="3"/>
@@ -68568,12 +68460,12 @@
   </sheetPr>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4333333333333" defaultRowHeight="13.5"/>
@@ -72227,7 +72119,7 @@
   </sheetPr>
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
